--- a/SP_Sklad/TempLate/nakladnaMove.xlsx
+++ b/SP_Sklad/TempLate/nakladnaMove.xlsx
@@ -15,7 +15,7 @@
     <definedName name="WayBillItems">Лист1!$A$11:$J$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$10:$10</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -75,8 +75,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0000"/>
-    <numFmt numFmtId="177" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -356,7 +356,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -371,8 +371,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -380,38 +380,38 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,11 +783,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -806,14 +806,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="19" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -836,12 +836,12 @@
       <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="20" t="e">
+      <c r="C3" s="31" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -898,19 +898,19 @@
       <c r="B8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="26"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="J8" s="21" t="s">
@@ -919,25 +919,25 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="22"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="27"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
-      <c r="I9" s="27"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="29">
         <v>2</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16">
         <v>5</v>
@@ -955,13 +955,13 @@
         <f>WayBillItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="23" t="e">
+      <c r="C11" s="30" t="e">
         <f>WayBillItems_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="13" t="e">
         <f>WayBillItems_MSRNAME</f>
         <v>#NAME?</v>
@@ -980,10 +980,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="25"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="17" t="s">
         <v>0</v>
       </c>
@@ -1030,86 +1030,19 @@
       <c r="G20" s="12"/>
     </row>
     <row r="21" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:F9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/nakladnaMove.xlsx
+++ b/SP_Sklad/TempLate/nakladnaMove.xlsx
@@ -12,26 +12,18 @@
   <definedNames>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
-    <definedName name="WayBillItems">Лист1!$A$11:$J$12</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$10:$10</definedName>
+    <definedName name="SummaryField">Лист1!$A$13:$H$14</definedName>
+    <definedName name="WayBillItems">Лист1!$A$10:$H$11</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>sum</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Назва товару</t>
-  </si>
-  <si>
-    <t>Підстава:</t>
-  </si>
-  <si>
-    <t>Разом по акту</t>
   </si>
   <si>
     <t>Дата:</t>
@@ -43,13 +35,7 @@
     <t>Од. вим.</t>
   </si>
   <si>
-    <t>Сума</t>
-  </si>
-  <si>
     <t>К-сть</t>
-  </si>
-  <si>
-    <t>Ціна</t>
   </si>
   <si>
     <t>Зі складу:</t>
@@ -61,22 +47,21 @@
     <t>НАКЛАДНА ПЕРЕМІЩЕННЯ №</t>
   </si>
   <si>
-    <t>Через кого:</t>
-  </si>
-  <si>
     <t>Відпустив:</t>
   </si>
   <si>
     <t>Прийняв:</t>
+  </si>
+  <si>
+    <t>Разом:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -182,12 +167,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -318,6 +303,52 @@
         <color indexed="55"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -345,10 +376,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -356,21 +383,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -404,14 +425,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,45 +816,41 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="19" t="e">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="14" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -829,28 +858,24 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="31" t="e">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="6" t="e">
         <f>WayBillList_WHNAME</f>
@@ -861,12 +886,10 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" s="6" t="e">
         <f>WayBillList_DESTWHNAME</f>
@@ -877,172 +900,138 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="e">
-        <f>WayBillList_REASON</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="21" t="s">
+      <c r="C7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="18"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="25">
+        <v>2</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13">
         <v>5</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="21" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="11" t="e">
+        <f>WayBillItems_NUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C10" s="26" t="e">
+        <f>WayBillItems_MATNAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="11" t="e">
+        <f>WayBillItems_MSRNAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H10" s="12" t="e">
+        <f>WayBillItems_AMOUNT</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="15" t="e">
+        <f>SummaryField_MsrName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H13" s="28" t="e">
+        <f>SummaryField_Amount</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="22"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="16">
-        <v>1</v>
-      </c>
-      <c r="C10" s="29">
-        <v>2</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16">
-        <v>5</v>
-      </c>
-      <c r="I10" s="16">
-        <v>6</v>
-      </c>
-      <c r="J10" s="16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="13" t="e">
-        <f>WayBillItems_NUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C11" s="30" t="e">
-        <f>WayBillItems_MATNAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="13" t="e">
-        <f>WayBillItems_MSRNAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H11" s="14" t="e">
-        <f>WayBillItems_AMOUNT</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I11" s="15" t="e">
-        <f>WayBillItems_PRICE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J11" s="18" t="e">
-        <f>H11*I11</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D16" s="9" t="e">
-        <f>WayBillList_MOVPERSONNAME</f>
+        <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="12"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="9" t="e">
-        <f>WayBillList_NAME</f>
+        <f>WayBillList_PERSONNAME</f>
         <v>#NAME?</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="9" t="e">
-        <f>WayBillList_PERSONNAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C11:F11"/>
+  <mergeCells count="9">
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:F8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
